--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1181,6 +1181,9 @@
                 <c:pt idx="2">
                   <c:v>24.8</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1196,11 +1199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="132367280"/>
-        <c:axId val="132365712"/>
+        <c:axId val="456012144"/>
+        <c:axId val="456010184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132367280"/>
+        <c:axId val="456012144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132365712"/>
+        <c:crossAx val="456010184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132365712"/>
+        <c:axId val="456010184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132367280"/>
+        <c:crossAx val="456012144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2303,19 +2306,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2423,16 +2426,18 @@
       <c r="D5" s="5">
         <v>20.877462999999999</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6">
+        <v>22.5</v>
+      </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>20.877462999999999</v>
+        <v>-1.6225370000000012</v>
       </c>
       <c r="G5" s="8">
         <v>43983</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2608,7 +2613,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2657,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2811,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2916,7 +2921,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2960,7 +2965,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
                   <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,11 +1199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="456012144"/>
-        <c:axId val="456010184"/>
+        <c:axId val="260045008"/>
+        <c:axId val="260041872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="456012144"/>
+        <c:axId val="260045008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456010184"/>
+        <c:crossAx val="260041872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456010184"/>
+        <c:axId val="260041872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456012144"/>
+        <c:crossAx val="260045008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2306,19 +2306,19 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2427,17 +2427,17 @@
         <v>20.877462999999999</v>
       </c>
       <c r="E5" s="6">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>-1.6225370000000012</v>
+        <v>-1.5225369999999998</v>
       </c>
       <c r="G5" s="8">
         <v>43983</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\myUsb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myUsb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A186D48-0A06-43EC-A065-09586E5A4B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9408"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -172,7 +173,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF7030A0"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -218,17 +218,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,7 +246,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -295,7 +294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -320,7 +318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -563,6 +561,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F3E-410C-9050-AF12451FC060}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -797,6 +800,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F3E-410C-9050-AF12451FC060}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1031,6 +1039,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F3E-410C-9050-AF12451FC060}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1047,11 +1060,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd" cmpd="sng">
+            <a:ln w="15875" cap="rnd" cmpd="dbl">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
-              <a:prstDash val="lgDash"/>
+              <a:prstDash val="sysDash"/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
@@ -1184,10 +1197,36 @@
                 <c:pt idx="3">
                   <c:v>22.4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7F3E-410C-9050-AF12451FC060}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -1199,11 +1238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="260045008"/>
-        <c:axId val="260041872"/>
+        <c:axId val="102459904"/>
+        <c:axId val="51541632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260045008"/>
+        <c:axId val="102459904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,10 +1300,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260041872"/>
+        <c:crossAx val="51541632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260041872"/>
+        <c:axId val="51541632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,10 +1369,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260045008"/>
+        <c:crossAx val="102459904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,7 +1386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1372,7 +1410,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1405,7 +1443,763 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forecast Deviation (actual-fc)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-08-01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-09-01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-01-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-02-01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-04-01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-05-01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-06-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-07-01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-09-01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021-10-01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021-11-01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021-12-01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-01-01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-02-01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-03-01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-04-01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022-06-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022-07-01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022-08-01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022-09-01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-10-01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-11-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.73805300000000074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9700999999998885E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.54191499999999948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5225369999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.2108819999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16889600000000016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0021329999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9876870000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.60789499999999919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.787113999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5829400000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.085719999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.388107999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.488992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.536124999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.986149000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.100557999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.778015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0943039999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.716507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4065689999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.502015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.865722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.493715000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.295204999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.548922000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.432825000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.945768999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.687625000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.328792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7686-49E0-B809-E82F5E523709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-08-01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-09-01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-10-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-01-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-02-01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-04-01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-05-01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-06-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-07-01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-09-01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021-10-01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021-11-01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021-12-01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-01-01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-02-01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-03-01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-04-01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022-06-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022-07-01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022-08-01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022-09-01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-10-01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-11-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7686-49E0-B809-E82F5E523709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="102460928"/>
+        <c:axId val="54497216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102460928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54497216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54497216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102460928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1456,6 +2250,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -2005,6 +2839,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2022,7 +3352,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2032,6 +3368,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2302,11 +3674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -2315,6 +3687,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2354,14 +3727,14 @@
       <c r="D2" s="5">
         <v>22.138052999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>21.4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <f>D2-E2</f>
         <v>0.73805300000000074</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2378,14 +3751,14 @@
       <c r="D3" s="5">
         <v>24.650299</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>24.7</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F31" si="0">D3-E3</f>
         <v>-4.9700999999998885E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2402,14 +3775,14 @@
       <c r="D4" s="5">
         <v>24.258085000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>24.8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>-0.54191499999999948</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2426,14 +3799,14 @@
       <c r="D5" s="5">
         <v>20.877462999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>22.4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>-1.5225369999999998</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2450,12 +3823,14 @@
       <c r="D6" s="5">
         <v>14.989117999999999</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9">
+      <c r="E6" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
-        <v>14.989117999999999</v>
-      </c>
-      <c r="G6" s="8">
+        <v>-3.2108819999999998</v>
+      </c>
+      <c r="G6" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2472,12 +3847,14 @@
       <c r="D7" s="5">
         <v>11.568896000000001</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
+      <c r="E7" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>11.568896000000001</v>
-      </c>
-      <c r="G7" s="8">
+        <v>0.16889600000000016</v>
+      </c>
+      <c r="G7" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2494,12 +3871,14 @@
       <c r="D8" s="5">
         <v>7.4978670000000003</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
+      <c r="E8" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>7.4978670000000003</v>
-      </c>
-      <c r="G8" s="8">
+        <v>-3.0021329999999997</v>
+      </c>
+      <c r="G8" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2516,12 +3895,14 @@
       <c r="D9" s="5">
         <v>7.0123129999999998</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9">
+      <c r="E9" s="8">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>7.0123129999999998</v>
-      </c>
-      <c r="G9" s="8">
+        <v>-1.9876870000000002</v>
+      </c>
+      <c r="G9" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2538,12 +3919,14 @@
       <c r="D10" s="5">
         <v>8.3921050000000008</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
+      <c r="E10" s="8">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>8.3921050000000008</v>
-      </c>
-      <c r="G10" s="8">
+        <v>-0.60789499999999919</v>
+      </c>
+      <c r="G10" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2560,12 +3943,14 @@
       <c r="D11" s="5">
         <v>10.587114</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9">
+      <c r="E11" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>10.587114</v>
-      </c>
-      <c r="G11" s="8">
+        <v>1.787113999999999</v>
+      </c>
+      <c r="G11" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2582,12 +3967,14 @@
       <c r="D12" s="5">
         <v>14.68294</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>14.68294</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="E12" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="F12" s="7">
+        <f>D12-E12</f>
+        <v>1.5829400000000007</v>
+      </c>
+      <c r="G12" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2604,12 +3991,12 @@
       <c r="D13" s="5">
         <v>18.085719999999998</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>18.085719999999998</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2626,12 +4013,12 @@
       <c r="D14" s="5">
         <v>22.388107999999999</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>22.388107999999999</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2648,12 +4035,12 @@
       <c r="D15" s="5">
         <v>24.488992</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9">
+      <c r="E15" s="8"/>
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>24.488992</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2670,12 +4057,12 @@
       <c r="D16" s="5">
         <v>24.536124999999998</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9">
+      <c r="E16" s="8"/>
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>24.536124999999998</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2692,12 +4079,12 @@
       <c r="D17" s="5">
         <v>20.986149000000001</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>20.986149000000001</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2714,12 +4101,12 @@
       <c r="D18" s="5">
         <v>16.100557999999999</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
+      <c r="E18" s="8"/>
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>16.100557999999999</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2736,12 +4123,12 @@
       <c r="D19" s="5">
         <v>12.778015</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
+      <c r="E19" s="8"/>
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>12.778015</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2758,12 +4145,12 @@
       <c r="D20" s="5">
         <v>8.0943039999999993</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
+      <c r="E20" s="8"/>
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>8.0943039999999993</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2780,12 +4167,12 @@
       <c r="D21" s="5">
         <v>6.716507</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9">
+      <c r="E21" s="8"/>
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>6.716507</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2802,12 +4189,12 @@
       <c r="D22" s="5">
         <v>8.4065689999999993</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
+      <c r="E22" s="8"/>
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>8.4065689999999993</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2824,12 +4211,12 @@
       <c r="D23" s="5">
         <v>10.502015</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9">
+      <c r="E23" s="8"/>
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>10.502015</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2846,12 +4233,12 @@
       <c r="D24" s="5">
         <v>13.865722</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>13.865722</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2868,12 +4255,12 @@
       <c r="D25" s="5">
         <v>18.493715000000002</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9">
+      <c r="E25" s="8"/>
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>18.493715000000002</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2890,12 +4277,12 @@
       <c r="D26" s="5">
         <v>22.295204999999999</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9">
+      <c r="E26" s="8"/>
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>22.295204999999999</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2912,12 +4299,12 @@
       <c r="D27" s="5">
         <v>24.548922000000001</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9">
+      <c r="E27" s="8"/>
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>24.548922000000001</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2934,12 +4321,12 @@
       <c r="D28" s="5">
         <v>24.432825000000001</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9">
+      <c r="E28" s="8"/>
+      <c r="F28" s="7">
         <f t="shared" si="0"/>
         <v>24.432825000000001</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2956,12 +4343,12 @@
       <c r="D29" s="5">
         <v>20.945768999999999</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9">
+      <c r="E29" s="8"/>
+      <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>20.945768999999999</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -2978,12 +4365,12 @@
       <c r="D30" s="5">
         <v>15.687625000000001</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9">
+      <c r="E30" s="8"/>
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
         <v>15.687625000000001</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>43983</v>
       </c>
     </row>
@@ -3000,12 +4387,12 @@
       <c r="D31" s="5">
         <v>12.328792</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9">
+      <c r="E31" s="8"/>
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>12.328792</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>43983</v>
       </c>
     </row>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myUsb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A186D48-0A06-43EC-A065-09586E5A4B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7D606B-16CD-40A5-8C01-A34D7D5BE968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1217,6 +1217,12 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,10 +1729,10 @@
                   <c:v>1.5829400000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.085719999999998</c:v>
+                  <c:v>-2.2142800000000022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.388107999999999</c:v>
+                  <c:v>2.7881079999999976</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>24.488992</c:v>
@@ -3678,7 +3684,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3991,10 +3997,12 @@
       <c r="D13" s="5">
         <v>18.085719999999998</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>20.3</v>
+      </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>18.085719999999998</v>
+        <v>-2.2142800000000022</v>
       </c>
       <c r="G13" s="6">
         <v>43983</v>
@@ -4013,10 +4021,12 @@
       <c r="D14" s="5">
         <v>22.388107999999999</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <v>19.600000000000001</v>
+      </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>22.388107999999999</v>
+        <v>2.7881079999999976</v>
       </c>
       <c r="G14" s="6">
         <v>43983</v>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myUsb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7D606B-16CD-40A5-8C01-A34D7D5BE968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="15" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -246,7 +240,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -284,7 +278,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -294,6 +297,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -302,25 +306,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -561,7 +546,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F3E-410C-9050-AF12451FC060}"/>
             </c:ext>
@@ -800,7 +785,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F3E-410C-9050-AF12451FC060}"/>
             </c:ext>
@@ -1039,7 +1024,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7F3E-410C-9050-AF12451FC060}"/>
             </c:ext>
@@ -1222,13 +1207,22 @@
                   <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7F3E-410C-9050-AF12451FC060}"/>
             </c:ext>
@@ -1243,12 +1237,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102459904"/>
-        <c:axId val="51541632"/>
+        <c:axId val="93518848"/>
+        <c:axId val="76924608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102459904"/>
+        <c:axId val="93518848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,10 +1301,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51541632"/>
+        <c:crossAx val="76924608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51541632"/>
+        <c:axId val="76924608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,10 +1370,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102459904"/>
+        <c:crossAx val="93518848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,6 +1387,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1416,7 +1412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1449,7 +1445,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1461,7 +1457,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1507,6 +1503,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1515,32 +1512,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1732,16 +1703,16 @@
                   <c:v>-2.2142800000000022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7881079999999976</c:v>
+                  <c:v>-0.31189200000000028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.488992</c:v>
+                  <c:v>-2.0110080000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.536124999999998</c:v>
+                  <c:v>-2.563875000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.986149000000001</c:v>
+                  <c:v>0.58614900000000247</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16.100557999999999</c:v>
@@ -1788,7 +1759,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7686-49E0-B809-E82F5E523709}"/>
             </c:ext>
@@ -2036,7 +2007,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7686-49E0-B809-E82F5E523709}"/>
             </c:ext>
@@ -2052,11 +2023,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="102460928"/>
-        <c:axId val="54497216"/>
+        <c:axId val="94412800"/>
+        <c:axId val="76926336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102460928"/>
+        <c:axId val="94412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,10 +2066,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54497216"/>
+        <c:crossAx val="76926336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2106,7 +2077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54497216"/>
+        <c:axId val="76926336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,10 +2124,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102460928"/>
+        <c:crossAx val="94412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2205,7 +2176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3361,7 +3332,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3368,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,31 +3644,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +3715,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3768,7 +3739,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3792,7 +3763,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3787,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3840,7 +3811,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3864,7 +3835,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3888,7 +3859,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3912,7 +3883,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -3936,7 +3907,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +3931,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3984,7 +3955,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -4008,7 +3979,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -4022,17 +3993,17 @@
         <v>22.388107999999999</v>
       </c>
       <c r="E14" s="8">
-        <v>19.600000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>2.7881079999999976</v>
+        <v>-0.31189200000000028</v>
       </c>
       <c r="G14" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -4045,16 +4016,18 @@
       <c r="D15" s="5">
         <v>24.488992</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <v>26.5</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>24.488992</v>
+        <v>-2.0110080000000004</v>
       </c>
       <c r="G15" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -4067,16 +4040,18 @@
       <c r="D16" s="5">
         <v>24.536124999999998</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <v>27.1</v>
+      </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>24.536124999999998</v>
+        <v>-2.563875000000003</v>
       </c>
       <c r="G16" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -4089,16 +4064,18 @@
       <c r="D17" s="5">
         <v>20.986149000000001</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <v>20.399999999999999</v>
+      </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>20.986149000000001</v>
+        <v>0.58614900000000247</v>
       </c>
       <c r="G17" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4120,7 +4097,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -4142,7 +4119,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -4164,7 +4141,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -4186,7 +4163,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -4208,7 +4185,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +4207,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4252,7 +4229,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4274,7 +4251,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -4296,7 +4273,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4318,7 +4295,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4340,7 +4317,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4362,7 +4339,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -4384,7 +4361,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-19305" yWindow="15" windowWidth="19425" windowHeight="10425"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,11 +135,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -241,17 +241,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="el-GR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -298,7 +288,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -307,12 +296,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -545,7 +532,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F3E-410C-9050-AF12451FC060}"/>
@@ -784,7 +770,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F3E-410C-9050-AF12451FC060}"/>
@@ -1023,7 +1008,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7F3E-410C-9050-AF12451FC060}"/>
@@ -1216,12 +1200,20 @@
                   <c:v>27.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7F3E-410C-9050-AF12451FC060}"/>
@@ -1229,25 +1221,17 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="93518848"/>
-        <c:axId val="76924608"/>
+        <c:axId val="60992512"/>
+        <c:axId val="61010688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93518848"/>
+        <c:axId val="60992512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1276,7 +1260,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1301,22 +1284,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76924608"/>
+        <c:crossAx val="61010688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76924608"/>
+        <c:axId val="61010688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1345,7 +1326,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1370,10 +1350,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93518848"/>
+        <c:crossAx val="60992512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1388,7 +1368,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1412,13 +1391,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1445,12 +1423,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1458,17 +1436,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="el-GR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1497,14 +1465,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Forecast Deviation (actual-fc)</a:t>
+              <a:t>Forecast Deviation (fc-act)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1513,13 +1480,11 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1561,7 +1526,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$31</c:f>
@@ -1712,16 +1676,16 @@
                   <c:v>-2.563875000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.58614900000000247</c:v>
+                  <c:v>8.6149000000002474E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.100557999999999</c:v>
+                  <c:v>1.7005579999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.778015</c:v>
+                  <c:v>0.17801500000000026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0943039999999993</c:v>
+                  <c:v>-0.90569600000000072</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.716507</c:v>
@@ -1806,7 +1770,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$31</c:f>
@@ -2013,29 +1976,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="94412800"/>
-        <c:axId val="76926336"/>
+        <c:axId val="60795136"/>
+        <c:axId val="60809216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94412800"/>
+        <c:axId val="60795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2066,22 +2020,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76926336"/>
+        <c:crossAx val="60809216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76926336"/>
+        <c:axId val="60809216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2099,7 +2051,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2124,10 +2075,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94412800"/>
+        <c:crossAx val="60795136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,7 +2092,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2176,12 +2126,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3432,7 +3382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3467,7 +3417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3651,14 +3601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -3668,7 +3618,7 @@
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -3691,7 +3641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3715,7 +3665,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3739,7 +3689,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3763,7 +3713,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3787,7 +3737,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3811,7 +3761,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +3785,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3859,7 +3809,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +3833,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -3907,7 +3857,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3931,7 +3881,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3955,7 +3905,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3979,7 +3929,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -4003,7 +3953,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -4027,7 +3977,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -4051,7 +4001,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -4065,17 +4015,17 @@
         <v>20.986149000000001</v>
       </c>
       <c r="E17" s="8">
-        <v>20.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>0.58614900000000247</v>
+        <v>8.6149000000002474E-2</v>
       </c>
       <c r="G17" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4088,16 +4038,18 @@
       <c r="D18" s="5">
         <v>16.100557999999999</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <v>14.4</v>
+      </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>16.100557999999999</v>
+        <v>1.7005579999999991</v>
       </c>
       <c r="G18" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -4110,16 +4062,18 @@
       <c r="D19" s="5">
         <v>12.778015</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8">
+        <v>12.6</v>
+      </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>12.778015</v>
+        <v>0.17801500000000026</v>
       </c>
       <c r="G19" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -4132,16 +4086,18 @@
       <c r="D20" s="5">
         <v>8.0943039999999993</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8">
+        <v>9</v>
+      </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>8.0943039999999993</v>
+        <v>-0.90569600000000072</v>
       </c>
       <c r="G20" s="6">
         <v>43983</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -4163,7 +4119,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4141,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -4207,7 +4163,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4229,7 +4185,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4251,7 +4207,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -4273,7 +4229,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4295,7 +4251,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4317,7 +4273,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4339,7 +4295,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -4361,7 +4317,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -1209,7 +1209,10 @@
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,11 +1227,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="60992512"/>
-        <c:axId val="61010688"/>
+        <c:axId val="58633216"/>
+        <c:axId val="58647296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60992512"/>
+        <c:axId val="58633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,14 +1290,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61010688"/>
+        <c:crossAx val="58647296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61010688"/>
+        <c:axId val="58647296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1356,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60992512"/>
+        <c:crossAx val="58633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,7 +1431,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1685,10 +1688,10 @@
                   <c:v>0.17801500000000026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.90569600000000072</c:v>
+                  <c:v>-0.30569600000000108</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.716507</c:v>
+                  <c:v>0.91650700000000018</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>8.4065689999999993</c:v>
@@ -1976,14 +1979,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="60795136"/>
-        <c:axId val="60809216"/>
+        <c:axId val="58041856"/>
+        <c:axId val="58043392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60795136"/>
+        <c:axId val="58041856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,14 +2025,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60809216"/>
+        <c:crossAx val="58043392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60809216"/>
+        <c:axId val="58043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2080,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60795136"/>
+        <c:crossAx val="58041856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2131,7 +2133,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3282,7 +3284,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3320,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3594,7 +3596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3605,7 +3607,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4087,11 +4089,11 @@
         <v>8.0943039999999993</v>
       </c>
       <c r="E20" s="8">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>-0.90569600000000072</v>
+        <v>-0.30569600000000108</v>
       </c>
       <c r="G20" s="6">
         <v>43983</v>
@@ -4110,10 +4112,12 @@
       <c r="D21" s="5">
         <v>6.716507</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8">
+        <v>5.8</v>
+      </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6.716507</v>
+        <v>0.91650700000000018</v>
       </c>
       <c r="G21" s="6">
         <v>43983</v>

--- a/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
+++ b/TimeSeriesAnalysis/Python/dionisos_Weather_fc_followup.xlsx
@@ -1212,7 +1212,37 @@
                   <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8</c:v>
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,11 +1257,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="58633216"/>
-        <c:axId val="58647296"/>
+        <c:axId val="58960896"/>
+        <c:axId val="58979072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58633216"/>
+        <c:axId val="58960896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,14 +1320,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58647296"/>
+        <c:crossAx val="58979072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58647296"/>
+        <c:axId val="58979072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1386,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58633216"/>
+        <c:crossAx val="58960896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1431,7 +1461,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1468,7 +1498,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Forecast Deviation (fc-act)</a:t>
+              <a:t>Forecast Deviation (act - fc)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1691,37 +1721,37 @@
                   <c:v>-0.30569600000000108</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91650700000000018</c:v>
+                  <c:v>1.0165069999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4065689999999993</c:v>
+                  <c:v>0.30656899999999965</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.502015</c:v>
+                  <c:v>4.4020150000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.865722</c:v>
+                  <c:v>-0.43427800000000083</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.493715000000002</c:v>
+                  <c:v>-0.60628499999999974</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.295204999999999</c:v>
+                  <c:v>-1.2047950000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.548922000000001</c:v>
+                  <c:v>-0.25107799999999969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.432825000000001</c:v>
+                  <c:v>3.2825000000002547E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.945768999999999</c:v>
+                  <c:v>-0.25423100000000076</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.687625000000001</c:v>
+                  <c:v>-0.71237499999999798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.328792</c:v>
+                  <c:v>-0.97120800000000074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,11 +2011,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="58041856"/>
-        <c:axId val="58043392"/>
+        <c:axId val="57972224"/>
+        <c:axId val="57973760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58041856"/>
+        <c:axId val="57972224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,14 +2055,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58043392"/>
+        <c:crossAx val="57973760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58043392"/>
+        <c:axId val="57973760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2110,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58041856"/>
+        <c:crossAx val="57972224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2133,7 +2163,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3284,7 +3314,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3350,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3607,7 +3637,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3684,7 +3714,7 @@
         <v>24.7</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F31" si="0">D3-E3</f>
+        <f t="shared" ref="F3:F30" si="0">D3-E3</f>
         <v>-4.9700999999998885E-2</v>
       </c>
       <c r="G3" s="6">
@@ -4113,11 +4143,11 @@
         <v>6.716507</v>
       </c>
       <c r="E21" s="8">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.91650700000000018</v>
+        <v>1.0165069999999998</v>
       </c>
       <c r="G21" s="6">
         <v>43983</v>
@@ -4136,10 +4166,12 @@
       <c r="D22" s="5">
         <v>8.4065689999999993</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8">
+        <v>8.1</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>8.4065689999999993</v>
+        <v>0.30656899999999965</v>
       </c>
       <c r="G22" s="6">
         <v>43983</v>
@@ -4158,10 +4190,12 @@
       <c r="D23" s="5">
         <v>10.502015</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8">
+        <v>6.1</v>
+      </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>10.502015</v>
+        <v>4.4020150000000005</v>
       </c>
       <c r="G23" s="6">
         <v>43983</v>
@@ -4180,10 +4214,12 @@
       <c r="D24" s="5">
         <v>13.865722</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8">
+        <v>14.3</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>13.865722</v>
+        <v>-0.43427800000000083</v>
       </c>
       <c r="G24" s="6">
         <v>43983</v>
@@ -4202,10 +4238,12 @@
       <c r="D25" s="5">
         <v>18.493715000000002</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8">
+        <v>19.100000000000001</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>18.493715000000002</v>
+        <v>-0.60628499999999974</v>
       </c>
       <c r="G25" s="6">
         <v>43983</v>
@@ -4224,10 +4262,12 @@
       <c r="D26" s="5">
         <v>22.295204999999999</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <v>23.5</v>
+      </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>22.295204999999999</v>
+        <v>-1.2047950000000007</v>
       </c>
       <c r="G26" s="6">
         <v>43983</v>
@@ -4246,10 +4286,12 @@
       <c r="D27" s="5">
         <v>24.548922000000001</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8">
+        <v>24.8</v>
+      </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>24.548922000000001</v>
+        <v>-0.25107799999999969</v>
       </c>
       <c r="G27" s="6">
         <v>43983</v>
@@ -4268,10 +4310,12 @@
       <c r="D28" s="5">
         <v>24.432825000000001</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8">
+        <v>24.4</v>
+      </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>24.432825000000001</v>
+        <v>3.2825000000002547E-2</v>
       </c>
       <c r="G28" s="6">
         <v>43983</v>
@@ -4290,10 +4334,12 @@
       <c r="D29" s="5">
         <v>20.945768999999999</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8">
+        <v>21.2</v>
+      </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>20.945768999999999</v>
+        <v>-0.25423100000000076</v>
       </c>
       <c r="G29" s="6">
         <v>43983</v>
@@ -4312,10 +4358,12 @@
       <c r="D30" s="5">
         <v>15.687625000000001</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8">
+        <v>16.399999999999999</v>
+      </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>15.687625000000001</v>
+        <v>-0.71237499999999798</v>
       </c>
       <c r="G30" s="6">
         <v>43983</v>
@@ -4334,10 +4382,12 @@
       <c r="D31" s="5">
         <v>12.328792</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8">
+        <v>13.3</v>
+      </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>12.328792</v>
+        <f>D31-E31</f>
+        <v>-0.97120800000000074</v>
       </c>
       <c r="G31" s="6">
         <v>43983</v>
